--- a/pred_ohlcv/54_21/2019-11-12 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>866336.7392999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>408433.2215999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>354680.3586999997</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-30057.22180000023</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>31949.56919999977</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>33753.30959999976</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-181389.3806000002</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>244252.0363999998</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-346780.8497000002</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-453665.5446000001</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-339557.1597000001</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-290353.3970000002</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-489588.3970000002</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-489048.0293000002</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-489548.0293000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-492358.4413000002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-592358.4412000002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-387890.4412000002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-387890.4413000002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-607453.7285000002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-584653.0060000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>723856.8362239997</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>13071844.96748155</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>13164838.39408155</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>15483502.88928155</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>15325461.29538155</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>15252485.80038155</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>16608095.35108155</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>17196278.41538155</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>17116121.27388155</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>16979344.65228155</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>17152635.76648155</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>17026315.96588155</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>16812485.18818155</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>16611935.18818155</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>16631784.82648155</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>16385584.40528155</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16636240.66018155</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16635745.82368155</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16581346.79878155</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>16983687.07028155</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17223890.37988155</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>16746514.95368155</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>21112037.15915728</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>19164983.38465728</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>20034731.77625728</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>18534622.29885728</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>18392743.38755728</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>18194936.91975183</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>18215051.73185183</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>19529752.01125183</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>18031430.87705183</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>18049865.75775183</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>20993347.20255183</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>19430984.78795183</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>18974936.43105183</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>19736720.87285183</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>19882943.00615183</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>20185333.93595183</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>21025594.85925183</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>20513359.84726777</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>19904184.93996777</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>21084781.99126353</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>20774460.28266353</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>22714064.04796353</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>19602741.98136353</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>19121085.93056353</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>19133071.20226353</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>17970038.04336353</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>17974890.99676353</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>18769735.01336353</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>18608121.98746353</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>18231166.07476353</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>17768185.97166353</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>17802221.58796353</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>17021434.02186353</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>17077534.76076353</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-12 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-12 VET ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>32050.29429999976</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24478.93099999976</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24771.72359999976</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>28684.17629999976</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>13601.65839999976</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>16682.48419999976</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>9632.983799999758</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>13278.83229999976</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13198.83229999976</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>12280.42929999976</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16280.42929999976</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>7831.879899999758</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>10761.87989999976</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>10684.59729999976</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>10552.11459999976</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-181389.3806000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-284329.7437000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>197371.1328999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>348750.0942999998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>348882.4557999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>232701.1513999998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>220796.1513999998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>244252.0363999998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>253868.4677999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>237150.6494999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>251597.3189999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>241951.4794999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>153056.7857999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-348007.5135000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-346418.3795000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-356526.8276000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-346780.8497000002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-379738.3875000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-447435.4465000001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-453665.5446000001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-339367.5717000001</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-339557.1597000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-284859.7031000002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-290353.3970000002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-289588.3970000002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-489548.0293000002</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-492358.4413000002</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-387890.4413000002</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-607453.7285000002</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>718140.2110239997</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>827425.8658239997</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>821999.3828239997</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>13071844.96748155</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>13164838.39408155</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>15483502.88928155</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>15325461.29538155</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>15325611.29538155</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>15252485.80038155</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>15787839.74508155</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>16608095.35108155</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>17196278.41538155</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>17116121.27388155</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>16979344.65228155</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>17152635.76648155</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>17026315.96588155</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>16812485.18818155</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>16611935.18818155</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>16631784.82648155</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>16515784.82648155</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>16385584.40528155</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16636240.66018155</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>16635745.82368155</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>16581346.79878155</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>16983687.07028155</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>17223890.37988155</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>16746175.09498155</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>16746514.95368155</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>19325112.75830614</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>19185521.88790614</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>19989395.86927575</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>21112037.15915728</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>19164983.38465728</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>20034731.77625728</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>18534622.29885728</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>18571163.62795728</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>18392743.38755728</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>18392743.38755728</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>18282696.33585728</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>18552918.48825183</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>18194936.91975183</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>18215051.73185183</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>19529752.01125183</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>18031430.87705183</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>18049865.75775183</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>19291543.93605183</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>20378332.76785183</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>20993347.20255183</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>18674870.84775183</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>19430984.78795183</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>18974936.43105183</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>19736720.87285183</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>19882943.00615183</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>20185333.93595183</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>21025594.85925183</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>20513359.84726777</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>19904184.93996777</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>20046007.57646777</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>21084781.99126353</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>20774460.28266353</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>22714064.04796353</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>19602741.98136353</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>18584350.39096353</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>19121085.93056353</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>19133071.20226353</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>18817310.65856353</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>18078577.01066353</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>17970038.04336353</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>17974890.99676353</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>18558121.22316353</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>18608121.98746353</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>18231166.07476353</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>17021434.02186353</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>17077534.76076353</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>17066388.73666353</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>18631466.87456353</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>18187839.15246353</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
